--- a/非受控文档/绩效评价/第五周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第五周绩效评价.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/PRD2018/绩效评价/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmy/Documents/GitHub/SE-Education-Assistant-System/非受控文档/绩效评价/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="7000" yWindow="2660" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="20180426" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="57">
   <si>
     <t>蓝舒雯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,12 +234,483 @@
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>截止时间：</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特殊标注的任务的截止时间统一为每周日中午12:00</t>
+    <rPh sb="0" eb="1">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei zhou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhong wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效评价规则：</t>
+    <rPh sb="0" eb="1">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每项任务有四个指标，一个指标未达标，视情节严重与否扣除0.02-0.05分</t>
+    <rPh sb="2" eb="3">
+      <t>mei xinag ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei da biao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu fou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若某组员在规定时间内几乎未完成任何指定任务，或在第一条规则内扣分超过0.4分则改组员本周绩效为0分</t>
+    <rPh sb="2" eb="3">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui ding shi jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kou fen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>gai cheng yuan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren ming bi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei xin qun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zu zhang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suo you ren</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke wu xian die jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.小组成员在本周工作成果优秀（具体表现为课堂上被杨老师表扬，提交任务近乎完美达到所有指标的情况），视情况本周绩效加0.02-0.05的分。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you xiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ju ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>biao xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke tang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lao shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao yang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin hu wan mei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ben zhou ji xiao</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jia fen</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>d</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +810,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +961,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I41"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="161" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1910,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1424,7 +1927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>43</v>
       </c>
@@ -1441,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>32</v>
       </c>
@@ -1475,7 +1978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
@@ -1509,13 +2012,87 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
